--- a/management/SOBC_ProgressManagement.xlsx
+++ b/management/SOBC_ProgressManagement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/273debb854664e28/デスクトップ/10031s0001/management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="543" documentId="8_{4D8D58D6-3583-4FF1-9CFF-369FAAF0AE88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75E66428-DBCB-44B9-9798-49CFF1A6A981}"/>
+  <xr:revisionPtr revIDLastSave="567" documentId="8_{4D8D58D6-3583-4FF1-9CFF-369FAAF0AE88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4DF6F96-118E-4F6A-9470-BE5224E40720}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{576F92C1-F77B-48EA-A2AC-0831C49C48AE}"/>
   </bookViews>
@@ -404,7 +404,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -464,13 +464,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -497,6 +506,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1059,10 +1074,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>進捗管理!$E$3:$E$40</c:f>
+              <c:f>進捗管理!$E$3:$E$44</c:f>
               <c:numCache>
                 <c:formatCode>m"/"d</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>45448</c:v>
                 </c:pt>
@@ -1104,6 +1119,51 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>45449</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45450</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45450</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45450</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45450</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45450</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45450</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45453</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45453</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45453</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45453</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45454</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45454</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45454</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45454</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45454</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2332,10 +2392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93266B22-3AB4-4417-B7CE-8107247EF6C1}">
-  <dimension ref="B2:E40"/>
+  <dimension ref="B2:E44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2545,7 +2605,9 @@
       <c r="D17" s="3">
         <v>45450</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="3">
+        <v>45450</v>
+      </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
@@ -2557,7 +2619,9 @@
       <c r="D18" s="3">
         <v>45450</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="3">
+        <v>45450</v>
+      </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
@@ -2569,7 +2633,9 @@
       <c r="D19" s="3">
         <v>45450</v>
       </c>
-      <c r="E19" s="3"/>
+      <c r="E19" s="3">
+        <v>45450</v>
+      </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
@@ -2579,7 +2645,9 @@
       <c r="D20" s="3">
         <v>45450</v>
       </c>
-      <c r="E20" s="3"/>
+      <c r="E20" s="3">
+        <v>45450</v>
+      </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
@@ -2589,7 +2657,9 @@
       <c r="D21" s="3">
         <v>45450</v>
       </c>
-      <c r="E21" s="3"/>
+      <c r="E21" s="3">
+        <v>45450</v>
+      </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
@@ -2599,7 +2669,9 @@
       <c r="D22" s="3">
         <v>45453</v>
       </c>
-      <c r="E22" s="3"/>
+      <c r="E22" s="3">
+        <v>45450</v>
+      </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
@@ -2609,7 +2681,9 @@
       <c r="D23" s="3">
         <v>45453</v>
       </c>
-      <c r="E23" s="3"/>
+      <c r="E23" s="3">
+        <v>45453</v>
+      </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
@@ -2619,7 +2693,9 @@
       <c r="D24" s="3">
         <v>45453</v>
       </c>
-      <c r="E24" s="3"/>
+      <c r="E24" s="3">
+        <v>45453</v>
+      </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
@@ -2629,7 +2705,9 @@
       <c r="D25" s="3">
         <v>45453</v>
       </c>
-      <c r="E25" s="3"/>
+      <c r="E25" s="3">
+        <v>45453</v>
+      </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
@@ -2639,7 +2717,9 @@
       <c r="D26" s="3">
         <v>45453</v>
       </c>
-      <c r="E26" s="3"/>
+      <c r="E26" s="3">
+        <v>45453</v>
+      </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
@@ -2649,7 +2729,9 @@
       <c r="D27" s="3">
         <v>45454</v>
       </c>
-      <c r="E27" s="3"/>
+      <c r="E27" s="3">
+        <v>45454</v>
+      </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
@@ -2659,7 +2741,9 @@
       <c r="D28" s="3">
         <v>45454</v>
       </c>
-      <c r="E28" s="3"/>
+      <c r="E28" s="3">
+        <v>45454</v>
+      </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
@@ -2669,7 +2753,9 @@
       <c r="D29" s="3">
         <v>45454</v>
       </c>
-      <c r="E29" s="3"/>
+      <c r="E29" s="3">
+        <v>45454</v>
+      </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
@@ -2679,7 +2765,9 @@
       <c r="D30" s="3">
         <v>45454</v>
       </c>
-      <c r="E30" s="3"/>
+      <c r="E30" s="3">
+        <v>45454</v>
+      </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
@@ -2689,7 +2777,9 @@
       <c r="D31" s="3">
         <v>45454</v>
       </c>
-      <c r="E31" s="3"/>
+      <c r="E31" s="3">
+        <v>45454</v>
+      </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
@@ -2780,6 +2870,18 @@
         <v>45456</v>
       </c>
       <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E41" s="9"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E42" s="10"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E43" s="10"/>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E44" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/management/SOBC_ProgressManagement.xlsx
+++ b/management/SOBC_ProgressManagement.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/273debb854664e28/デスクトップ/10031s0001/management/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/273debb854664e28/デスクトップ/Projects/10031s0001/management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="567" documentId="8_{4D8D58D6-3583-4FF1-9CFF-369FAAF0AE88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4DF6F96-118E-4F6A-9470-BE5224E40720}"/>
+  <xr:revisionPtr revIDLastSave="573" documentId="8_{4D8D58D6-3583-4FF1-9CFF-369FAAF0AE88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1115DE6-E0F7-43E6-A587-D351183405F1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{576F92C1-F77B-48EA-A2AC-0831C49C48AE}"/>
   </bookViews>
@@ -1164,6 +1164,24 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45454</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45454</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45455</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45455</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45456</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45456</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45456</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2395,7 +2413,7 @@
   <dimension ref="B2:E44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2789,7 +2807,9 @@
       <c r="D32" s="3">
         <v>45455</v>
       </c>
-      <c r="E32" s="3"/>
+      <c r="E32" s="3">
+        <v>45454</v>
+      </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
@@ -2799,7 +2819,9 @@
       <c r="D33" s="3">
         <v>45455</v>
       </c>
-      <c r="E33" s="3"/>
+      <c r="E33" s="3">
+        <v>45455</v>
+      </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="4"/>
@@ -2809,7 +2831,9 @@
       <c r="D34" s="3">
         <v>45455</v>
       </c>
-      <c r="E34" s="3"/>
+      <c r="E34" s="3">
+        <v>45455</v>
+      </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" s="4"/>
@@ -2819,7 +2843,9 @@
       <c r="D35" s="3">
         <v>45455</v>
       </c>
-      <c r="E35" s="3"/>
+      <c r="E35" s="3">
+        <v>45456</v>
+      </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" s="4"/>
@@ -2829,7 +2855,9 @@
       <c r="D36" s="3">
         <v>45456</v>
       </c>
-      <c r="E36" s="3"/>
+      <c r="E36" s="3">
+        <v>45456</v>
+      </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="4"/>
@@ -2839,7 +2867,9 @@
       <c r="D37" s="3">
         <v>45456</v>
       </c>
-      <c r="E37" s="3"/>
+      <c r="E37" s="3">
+        <v>45456</v>
+      </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" s="4"/>

--- a/management/SOBC_ProgressManagement.xlsx
+++ b/management/SOBC_ProgressManagement.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/273debb854664e28/デスクトップ/Projects/10031s0001/management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="573" documentId="8_{4D8D58D6-3583-4FF1-9CFF-369FAAF0AE88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1115DE6-E0F7-43E6-A587-D351183405F1}"/>
+  <xr:revisionPtr revIDLastSave="732" documentId="8_{4D8D58D6-3583-4FF1-9CFF-369FAAF0AE88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58C9EDD7-0992-4FFD-9259-E7B39346C2F5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{576F92C1-F77B-48EA-A2AC-0831C49C48AE}"/>
   </bookViews>
   <sheets>
-    <sheet name="進捗管理" sheetId="3" r:id="rId1"/>
+    <sheet name="進捗管理(6.17-7.30)" sheetId="5" r:id="rId1"/>
+    <sheet name="進捗管理(6.5-6.14)" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
   <si>
     <t>コース</t>
     <phoneticPr fontId="2"/>
@@ -343,6 +344,171 @@
   </si>
   <si>
     <t>(シラバスに記載の期間:12日間)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(シラバスに記載の期間:18日間)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>業務向け実践</t>
+    <rPh sb="0" eb="2">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジッセン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(リアルタイムシステム開発演習)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>01. COMETとは</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>02.COMETの操作方法</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>03.トレースリスト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>04.オブジェクトファイル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>05.命令解析方法</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>06.開発演習用COMETの仕様</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>07.開発演習導入</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>08～17.要求定義分析</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>18, 19.プロジェクト計画</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20～25.基本設計</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>26～36.詳細設計</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>37～45.プログラミング</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>46～55.ユニットテスト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>56～60.結合テスト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>61～71.追加実装（開発２）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>72.プロジェクト総括</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※18, 19.プロジェクト計画 にて詳細なプロジェクト計画書を作成する予定。</t>
+    <rPh sb="14" eb="16">
+      <t>ケイカク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>ケイカクショ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アセンブラについて調査</t>
+    <rPh sb="9" eb="11">
+      <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>基本的な命令と構文について</t>
+    <rPh sb="0" eb="3">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>メイレイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>命令について調査(約10命令文)</t>
+    <rPh sb="0" eb="2">
+      <t>メイレイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>メイレイブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※COMETⅡで使用する命令は細かく分けて37個</t>
+    <rPh sb="8" eb="10">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>メイレイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(試験で使用する
+情報技術に関する用語・プログラム言語など
+Ver.4.3 p.11 1.命令後の構成)</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -479,7 +645,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -512,6 +678,15 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -627,7 +802,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>進捗管理!$D$2</c:f>
+              <c:f>'進捗管理(6.17-7.30)'!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -662,245 +837,137 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>進捗管理!$C$3:$C$40</c:f>
+              <c:f>'進捗管理(6.17-7.30)'!$C$3:$C$22</c:f>
               <c:strCache>
-                <c:ptCount val="38"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>N進法</c:v>
+                  <c:v>01. COMETとは</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>集合</c:v>
+                  <c:v>02.COMETの操作方法</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>命題</c:v>
+                  <c:v>03.トレースリスト</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>論理演算</c:v>
+                  <c:v>基本的な命令と構文について</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>フローチャート学習</c:v>
+                  <c:v>命令について調査(約10命令文)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>演習問題</c:v>
+                  <c:v>命令について調査(約10命令文)</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>はじめに</c:v>
+                  <c:v>命令について調査(約10命令文)</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>基本構文</c:v>
+                  <c:v>04.オブジェクトファイル</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>変数とデータ型</c:v>
+                  <c:v>05.命令解析方法</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>演算子</c:v>
+                  <c:v>06.開発演習用COMETの仕様</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>制御構文</c:v>
+                  <c:v>07.開発演習導入</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>関数</c:v>
+                  <c:v>08～17.要求定義分析</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>ポインタと構造体</c:v>
+                  <c:v>18, 19.プロジェクト計画</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>ファイル処理</c:v>
+                  <c:v>20～25.基本設計</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>プログラミング演習</c:v>
+                  <c:v>26～36.詳細設計</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>はじめに</c:v>
+                  <c:v>37～45.プログラミング</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Linux基本操作1</c:v>
+                  <c:v>46～55.ユニットテスト</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Linux基本操作2</c:v>
+                  <c:v>56～60.結合テスト</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>Linux基本操作3</c:v>
+                  <c:v>61～71.追加実装（開発２）</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>C言語基礎1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>C言語基礎2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>C言語基礎3</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>C言語基礎4</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>C言語基礎5</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>構造体とテーブル操作1</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>構造体とテーブル操作2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>構造体とテーブル操作3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>構造体とテーブル操作演習1</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>構造体とテーブル操作演習2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>プログラミング演習1</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>プログラミング演習2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>プログラミング演習3</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>プログラミング演習4</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>プログラミング演習5</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>プログラミング演習6</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>追加課題：プログラミング演習1</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>追加課題：プログラミング演習2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>追加課題：プログラミング演習3</c:v>
+                  <c:v>72.プロジェクト総括</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>進捗管理!$D$3:$D$40</c:f>
+              <c:f>'進捗管理(6.17-7.30)'!$D$3:$D$22</c:f>
               <c:numCache>
                 <c:formatCode>m"/"d</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>45448</c:v>
+                  <c:v>45460</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45448</c:v>
+                  <c:v>45460</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45448</c:v>
+                  <c:v>45460</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45448</c:v>
+                  <c:v>45461</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45448</c:v>
+                  <c:v>45462</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45448</c:v>
+                  <c:v>45463</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45448</c:v>
+                  <c:v>45464</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45448</c:v>
+                  <c:v>45467</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45449</c:v>
+                  <c:v>45467</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45449</c:v>
+                  <c:v>45467</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45449</c:v>
+                  <c:v>45468</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45449</c:v>
+                  <c:v>45468</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45449</c:v>
+                  <c:v>45468</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45450</c:v>
+                  <c:v>45471</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45450</c:v>
+                  <c:v>45476</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45450</c:v>
+                  <c:v>45483</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45450</c:v>
+                  <c:v>45485</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45450</c:v>
+                  <c:v>45489</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>45450</c:v>
+                  <c:v>45498</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45453</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>45453</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>45453</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>45453</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>45453</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>45454</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>45454</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>45454</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>45454</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>45454</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>45455</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>45455</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>45455</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>45455</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>45456</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>45456</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>45456</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>45456</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>45456</c:v>
+                  <c:v>45499</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -908,7 +975,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F0C5-4D03-A0A6-9C8C11888AE7}"/>
+              <c16:uniqueId val="{00000000-268F-4533-8FF1-DA5B3726EEC1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -917,7 +984,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>進捗管理!$E$2</c:f>
+              <c:f>'進捗管理(6.17-7.30)'!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -952,129 +1019,945 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>進捗管理!$C$3:$C$40</c:f>
+              <c:f>'進捗管理(6.17-7.30)'!$C$3:$C$22</c:f>
               <c:strCache>
-                <c:ptCount val="38"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>N進法</c:v>
+                  <c:v>01. COMETとは</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>集合</c:v>
+                  <c:v>02.COMETの操作方法</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>命題</c:v>
+                  <c:v>03.トレースリスト</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>論理演算</c:v>
+                  <c:v>基本的な命令と構文について</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>フローチャート学習</c:v>
+                  <c:v>命令について調査(約10命令文)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>演習問題</c:v>
+                  <c:v>命令について調査(約10命令文)</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>はじめに</c:v>
+                  <c:v>命令について調査(約10命令文)</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>基本構文</c:v>
+                  <c:v>04.オブジェクトファイル</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>変数とデータ型</c:v>
+                  <c:v>05.命令解析方法</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>演算子</c:v>
+                  <c:v>06.開発演習用COMETの仕様</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>制御構文</c:v>
+                  <c:v>07.開発演習導入</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>関数</c:v>
+                  <c:v>08～17.要求定義分析</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>ポインタと構造体</c:v>
+                  <c:v>18, 19.プロジェクト計画</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>ファイル処理</c:v>
+                  <c:v>20～25.基本設計</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>プログラミング演習</c:v>
+                  <c:v>26～36.詳細設計</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>はじめに</c:v>
+                  <c:v>37～45.プログラミング</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Linux基本操作1</c:v>
+                  <c:v>46～55.ユニットテスト</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Linux基本操作2</c:v>
+                  <c:v>56～60.結合テスト</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>Linux基本操作3</c:v>
+                  <c:v>61～71.追加実装（開発２）</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>C言語基礎1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>C言語基礎2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>C言語基礎3</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>C言語基礎4</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>C言語基礎5</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>構造体とテーブル操作1</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>構造体とテーブル操作2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>構造体とテーブル操作3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>構造体とテーブル操作演習1</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>構造体とテーブル操作演習2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>プログラミング演習1</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>プログラミング演習2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>プログラミング演習3</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>プログラミング演習4</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>プログラミング演習5</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>プログラミング演習6</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>追加課題：プログラミング演習1</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>追加課題：プログラミング演習2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>追加課題：プログラミング演習3</c:v>
+                  <c:v>72.プロジェクト総括</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>進捗管理!$E$3:$E$44</c:f>
+              <c:f>'進捗管理(6.17-7.30)'!$E$3:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>m"/"d</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>45460</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45460</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45460</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-268F-4533-8FF1-DA5B3726EEC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1770779551"/>
+        <c:axId val="1107853807"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1770779551"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US">
+                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  </a:rPr>
+                  <a:t>カリキュラム</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1107853807"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1107853807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="45444"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US">
+                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  </a:rPr>
+                  <a:t>日付</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="m&quot;/&quot;d" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1770779551"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="2"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>SOBC</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>進捗管理</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'進捗管理(6.5-6.14)'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>予定</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'進捗管理(6.5-6.14)'!$C$3:$C$40</c:f>
+              <c:strCache>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>N進法</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>集合</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>命題</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>論理演算</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>フローチャート学習</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>演習問題</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>はじめに</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>基本構文</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>変数とデータ型</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>演算子</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>制御構文</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>関数</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>ポインタと構造体</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>ファイル処理</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>プログラミング演習</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>はじめに</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Linux基本操作1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Linux基本操作2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Linux基本操作3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>C言語基礎1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>C言語基礎2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>C言語基礎3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>C言語基礎4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>C言語基礎5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>構造体とテーブル操作1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>構造体とテーブル操作2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>構造体とテーブル操作3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>構造体とテーブル操作演習1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>構造体とテーブル操作演習2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>プログラミング演習1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>プログラミング演習2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>プログラミング演習3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>プログラミング演習4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>プログラミング演習5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>プログラミング演習6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>追加課題：プログラミング演習1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>追加課題：プログラミング演習2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>追加課題：プログラミング演習3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'進捗管理(6.5-6.14)'!$D$3:$D$40</c:f>
+              <c:numCache>
+                <c:formatCode>m"/"d</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>45448</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45448</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45448</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45448</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45448</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45448</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45448</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45448</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45449</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45449</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45449</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45449</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45449</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45450</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45450</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45450</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45450</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45450</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45450</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45453</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45453</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45453</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45453</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45453</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45454</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45454</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45454</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45454</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45454</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45455</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45455</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45455</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45455</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45456</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45456</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45456</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45456</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45456</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F0C5-4D03-A0A6-9C8C11888AE7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'進捗管理(6.5-6.14)'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>実績</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'進捗管理(6.5-6.14)'!$C$3:$C$40</c:f>
+              <c:strCache>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>N進法</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>集合</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>命題</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>論理演算</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>フローチャート学習</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>演習問題</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>はじめに</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>基本構文</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>変数とデータ型</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>演算子</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>制御構文</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>関数</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>ポインタと構造体</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>ファイル処理</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>プログラミング演習</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>はじめに</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Linux基本操作1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Linux基本操作2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Linux基本操作3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>C言語基礎1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>C言語基礎2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>C言語基礎3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>C言語基礎4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>C言語基礎5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>構造体とテーブル操作1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>構造体とテーブル操作2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>構造体とテーブル操作3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>構造体とテーブル操作演習1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>構造体とテーブル操作演習2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>プログラミング演習1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>プログラミング演習2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>プログラミング演習3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>プログラミング演習4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>プログラミング演習5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>プログラミング演習6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>追加課題：プログラミング演習1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>追加課題：プログラミング演習2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>追加課題：プログラミング演習3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'進捗管理(6.5-6.14)'!$E$3:$E$44</c:f>
               <c:numCache>
                 <c:formatCode>m"/"d</c:formatCode>
                 <c:ptCount val="42"/>
@@ -1182,6 +2065,15 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45456</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45457</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45457</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45457</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1545,6 +2437,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -2048,7 +2980,553 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>518</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>198341</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>258535</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A7E2352-5639-4AF4-B174-E7A4A7AEF86F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2409,11 +3887,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93266B22-3AB4-4417-B7CE-8107247EF6C1}">
-  <dimension ref="B2:E44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EE16CFC-B5F3-4C2D-A816-F56B50220EB1}">
+  <dimension ref="B2:E26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="C28" sqref="C28:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2441,6 +3919,285 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="3">
+        <v>45460</v>
+      </c>
+      <c r="E3" s="3">
+        <v>45460</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="3">
+        <v>45460</v>
+      </c>
+      <c r="E4" s="3">
+        <v>45460</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="3">
+        <v>45460</v>
+      </c>
+      <c r="E5" s="3">
+        <v>45460</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="3">
+        <v>45461</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="11"/>
+      <c r="C7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="3">
+        <v>45462</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="11"/>
+      <c r="C8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="3">
+        <v>45463</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="11"/>
+      <c r="C9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="3">
+        <v>45464</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="3">
+        <v>45467</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="3">
+        <v>45467</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="3">
+        <v>45467</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="11"/>
+      <c r="C13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="3">
+        <v>45468</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+      <c r="C14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="3">
+        <v>45468</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+      <c r="C15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="3">
+        <v>45468</v>
+      </c>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="4"/>
+      <c r="C16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="3">
+        <v>45471</v>
+      </c>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+      <c r="C17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="3">
+        <v>45476</v>
+      </c>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+      <c r="C18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="3">
+        <v>45483</v>
+      </c>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="C19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="3">
+        <v>45485</v>
+      </c>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="4"/>
+      <c r="C20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="3">
+        <v>45489</v>
+      </c>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="4"/>
+      <c r="C21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="3">
+        <v>45498</v>
+      </c>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="12"/>
+      <c r="C22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="3">
+        <v>45499</v>
+      </c>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E23" s="10"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="10"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="10"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93266B22-3AB4-4417-B7CE-8107247EF6C1}">
+  <dimension ref="B2:E44"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.77734375" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="5" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="4.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -2879,7 +4636,9 @@
       <c r="D38" s="3">
         <v>45456</v>
       </c>
-      <c r="E38" s="3"/>
+      <c r="E38" s="3">
+        <v>45457</v>
+      </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="4"/>
@@ -2889,7 +4648,9 @@
       <c r="D39" s="3">
         <v>45456</v>
       </c>
-      <c r="E39" s="3"/>
+      <c r="E39" s="3">
+        <v>45457</v>
+      </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" s="5"/>
@@ -2899,7 +4660,9 @@
       <c r="D40" s="3">
         <v>45456</v>
       </c>
-      <c r="E40" s="3"/>
+      <c r="E40" s="3">
+        <v>45457</v>
+      </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E41" s="9"/>

--- a/management/SOBC_ProgressManagement.xlsx
+++ b/management/SOBC_ProgressManagement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/273debb854664e28/デスクトップ/Projects/10031s0001/management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="732" documentId="8_{4D8D58D6-3583-4FF1-9CFF-369FAAF0AE88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58C9EDD7-0992-4FFD-9259-E7B39346C2F5}"/>
+  <xr:revisionPtr revIDLastSave="744" documentId="8_{4D8D58D6-3583-4FF1-9CFF-369FAAF0AE88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD580173-C0B3-4BE8-9EA4-F8F849D111C9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{576F92C1-F77B-48EA-A2AC-0831C49C48AE}"/>
   </bookViews>
@@ -645,7 +645,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -683,9 +683,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1099,6 +1096,30 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>45460</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45461</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45462</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45463</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45464</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45462</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45463</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45463</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45464</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3891,7 +3912,7 @@
   <dimension ref="B2:E26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:C29"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3969,7 +3990,9 @@
       <c r="D6" s="3">
         <v>45461</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="3">
+        <v>45461</v>
+      </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="11"/>
@@ -3979,7 +4002,9 @@
       <c r="D7" s="3">
         <v>45462</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="3">
+        <v>45462</v>
+      </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="11"/>
@@ -3989,7 +4014,9 @@
       <c r="D8" s="3">
         <v>45463</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="3">
+        <v>45463</v>
+      </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="11"/>
@@ -3999,7 +4026,9 @@
       <c r="D9" s="3">
         <v>45464</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="3">
+        <v>45464</v>
+      </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
@@ -4011,7 +4040,9 @@
       <c r="D10" s="3">
         <v>45467</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="3">
+        <v>45462</v>
+      </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
@@ -4023,7 +4054,9 @@
       <c r="D11" s="3">
         <v>45467</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11" s="3">
+        <v>45463</v>
+      </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
@@ -4035,7 +4068,9 @@
       <c r="D12" s="3">
         <v>45467</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="3">
+        <v>45463</v>
+      </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="11"/>
@@ -4045,7 +4080,9 @@
       <c r="D13" s="3">
         <v>45468</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="3">
+        <v>45464</v>
+      </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
@@ -4147,13 +4184,13 @@
       <c r="E24" s="10"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="13" t="s">
+      <c r="B25" t="s">
         <v>71</v>
       </c>
       <c r="E25" s="10"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="13" t="s">
+      <c r="B26" t="s">
         <v>72</v>
       </c>
       <c r="E26" s="10"/>

--- a/management/SOBC_ProgressManagement.xlsx
+++ b/management/SOBC_ProgressManagement.xlsx
@@ -3912,7 +3912,7 @@
   <dimension ref="B2:E26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/management/SOBC_ProgressManagement.xlsx
+++ b/management/SOBC_ProgressManagement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/273debb854664e28/デスクトップ/Projects/10031s0001/management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="744" documentId="8_{4D8D58D6-3583-4FF1-9CFF-369FAAF0AE88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD580173-C0B3-4BE8-9EA4-F8F849D111C9}"/>
+  <xr:revisionPtr revIDLastSave="753" documentId="8_{4D8D58D6-3583-4FF1-9CFF-369FAAF0AE88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA9CC46B-294F-4A34-B6BB-4B25AD257F41}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{576F92C1-F77B-48EA-A2AC-0831C49C48AE}"/>
   </bookViews>
@@ -946,25 +946,25 @@
                   <c:v>45468</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45471</c:v>
+                  <c:v>45474</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45476</c:v>
+                  <c:v>45478</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45483</c:v>
+                  <c:v>45485</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45485</c:v>
+                  <c:v>45492</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45489</c:v>
+                  <c:v>45496</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>45498</c:v>
+                  <c:v>45503</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45499</c:v>
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1120,6 +1120,12 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>45464</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45464</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45468</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3912,7 +3918,7 @@
   <dimension ref="B2:E26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4092,7 +4098,9 @@
       <c r="D14" s="3">
         <v>45468</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="3">
+        <v>45464</v>
+      </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
@@ -4102,7 +4110,9 @@
       <c r="D15" s="3">
         <v>45468</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="3">
+        <v>45468</v>
+      </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
@@ -4110,7 +4120,7 @@
         <v>60</v>
       </c>
       <c r="D16" s="3">
-        <v>45471</v>
+        <v>45474</v>
       </c>
       <c r="E16" s="3"/>
     </row>
@@ -4120,7 +4130,7 @@
         <v>61</v>
       </c>
       <c r="D17" s="3">
-        <v>45476</v>
+        <v>45478</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -4130,7 +4140,7 @@
         <v>62</v>
       </c>
       <c r="D18" s="3">
-        <v>45483</v>
+        <v>45485</v>
       </c>
       <c r="E18" s="3"/>
     </row>
@@ -4140,7 +4150,7 @@
         <v>63</v>
       </c>
       <c r="D19" s="3">
-        <v>45485</v>
+        <v>45492</v>
       </c>
       <c r="E19" s="3"/>
     </row>
@@ -4150,7 +4160,7 @@
         <v>64</v>
       </c>
       <c r="D20" s="3">
-        <v>45489</v>
+        <v>45496</v>
       </c>
       <c r="E20" s="3"/>
     </row>
@@ -4160,7 +4170,7 @@
         <v>65</v>
       </c>
       <c r="D21" s="3">
-        <v>45498</v>
+        <v>45503</v>
       </c>
       <c r="E21" s="3"/>
     </row>
@@ -4170,7 +4180,7 @@
         <v>66</v>
       </c>
       <c r="D22" s="3">
-        <v>45499</v>
+        <v>45504</v>
       </c>
       <c r="E22" s="3"/>
     </row>
